--- a/Reports/day3/ar3.xlsx
+++ b/Reports/day3/ar3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Hair</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>Men</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>total women</t>
+  </si>
+  <si>
+    <t>Effectif Cheveux</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Brown (cf G10:G14)</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>There are 7 men and 7 women that have Hazel Eye and Red Hair thus there is a 50 % chance of having the student being a men and women.</t>
   </si>
 </sst>
 </file>
@@ -80,7 +107,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -133,6 +172,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,20 +464,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +497,14 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -461,8 +520,14 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -479,7 +544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -489,14 +554,14 @@
       <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -513,12 +578,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +599,11 @@
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -551,8 +619,12 @@
       <c r="E11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f>SUM(B11:E11)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,8 +640,12 @@
       <c r="E12" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" ref="G12:G14" si="0">SUM(B12:E12)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -579,14 +655,18 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -601,6 +681,44 @@
       </c>
       <c r="E14" s="2">
         <v>8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <f>(B4+B12)/H2</f>
+        <v>0.20101351351351351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <f>E5/H3</f>
+        <v>2.2364217252396165E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
